--- a/data/Unicrypt/Unicrypt20170701.xlsx
+++ b/data/Unicrypt/Unicrypt20170701.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185">
